--- a/medicine/Pharmacie/Simon_Boulduc/Simon_Boulduc.xlsx
+++ b/medicine/Pharmacie/Simon_Boulduc/Simon_Boulduc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Boulduc, né en 1652 à Paris où il est mort le 22 février 1729, apothicaire, herboriste, chimiste, titulaire (professeur) de la chaire de chimie au Jardin royal des plantes médicinales (« le Jardin du Roi ») de 1695 à 1729 après avoir été démonstrateur (maître de conférences) de 1686 à 1695. Il est apothicaire à la cour du Roi et de la Noblesse d'Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Boulduc devint "maître épicier" le 5 janvier 1662. Les maîtres épiciers sont membres de la confrérie des apothicaires. Il est reçu "maître apothicaire" le 8 novembre 1672. 
 Il se marie avec Marie-Élisabeth de Lestang le 12 juin 1674. Ils auront quatre enfants, Simon-Charles, Marie-Madeleine, Marie-Elisabeth et le futur chimiste, Gilles-François Boulduc.
